--- a/import/data_import/PNC00001 UCB-J_consortium/PN00008_UCBJ-Leuven4/PublicnEUro_record_Group4.xlsx
+++ b/import/data_import/PNC00001 UCB-J_consortium/PN00008_UCBJ-Leuven4/PublicnEUro_record_Group4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PublicnEUro\DataCatalogue\import\data_import\UCBJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PublicnEUro\DataCatalogue\import\data_import\PNC00001 UCB-J_consortium\PN00008_UCBJ-Leuven4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE34EC0-B2B0-4016-BDB4-29969B3A79A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA47293A-3A83-485F-8276-7C709758824F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,10 +323,10 @@
     <t xml:space="preserve">Leuven PET UCB-J dataset 4 in control participants </t>
   </si>
   <si>
-    <t>10.70883/WSYQ4663</t>
-  </si>
-  <si>
-    <t>PN000010</t>
+    <t>PN000008</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.70883/MIIQ4096</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -994,6 +994,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1243,7 +1246,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1254,20 +1257,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="85" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="85"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="86"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
@@ -1315,7 +1318,7 @@
       <c r="A7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="89" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="57" t="s">
@@ -1326,7 +1329,7 @@
       <c r="A8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="89"/>
+      <c r="B8" s="90"/>
       <c r="C8" s="57" t="s">
         <v>59</v>
       </c>
@@ -1357,7 +1360,7 @@
       <c r="A11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="87" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="13"/>
@@ -1383,7 +1386,7 @@
       <c r="A12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="87"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="14"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1407,7 +1410,7 @@
       <c r="A13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="87" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="14"/>
@@ -1433,7 +1436,7 @@
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="87"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="14"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1553,7 +1556,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
@@ -1563,8 +1566,8 @@
       <c r="B23" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="C23" t="s">
-        <v>91</v>
+      <c r="C23" s="80" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1584,6 +1587,7 @@
     <hyperlink ref="B16" r:id="rId5" xr:uid="{042E520D-DC3A-465C-A1A0-E0407B43AE55}"/>
     <hyperlink ref="B7" r:id="rId6" location="dataset_descriptionjson" xr:uid="{F6C4DD7F-BDF1-415D-A415-DE85F43495B0}"/>
     <hyperlink ref="B9" r:id="rId7" xr:uid="{FC9DB523-70D6-417A-B2D7-B4597C9DE102}"/>
+    <hyperlink ref="C23" r:id="rId8" xr:uid="{FC166C45-9BD8-4C94-BB24-A0DEFDEE4F02}"/>
   </hyperlinks>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
